--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/29_Elazığ_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/29_Elazığ_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6509D52-4F8E-44C3-ACCF-34B6F31D829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0136717-67D4-4A86-9472-71DE429DED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{BEE72601-AFE3-4364-9731-89B364D496B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{CEACB1CE-D448-4366-848E-88ACE2257F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8E5FBAF7-FBC7-4B52-B9E2-46F7CAE6FF72}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B0240F02-F9EA-4757-A824-E3B03850563E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C22E4406-2DAD-4DD5-BA4D-B65059D90B45}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E162D263-9F71-462E-BBE7-FBBD65AC9C35}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{97C45FC6-63A8-449F-91BE-AA1C82599657}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{48FE498A-F89F-45DC-8E2F-44399F45170D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E77C57D0-EA8C-48E4-9F91-B9DED9C8789B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5F8717A3-298A-4A24-8C0C-DEA81DA780FD}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1EDBFF8-7FDE-41FF-BA0B-AF284E3D0318}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D2615F44-8B19-4217-A71A-42B3DA39806C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B4814FE9-904D-4B13-A103-B93C969D1A06}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BF3AA6C2-D890-47BA-A347-69893DECCBE3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DAB91192-7240-401C-A110-5744CB1C913E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6F3D834E-BB5D-43F5-86EF-070869A2E315}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4335BD57-8903-443F-AB01-D157EB74FC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D948DED8-0F00-4FB0-A77D-2113CCEB36B3}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2568,18 +2568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F57C7CA4-1514-4841-B0FE-2D66ADAF4D96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE96244D-8597-4094-BEFF-453ED0F9D78E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C578159-EEE2-4B24-A8C5-4690DA0CA0B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4145ED5-CC6B-46CD-9EB9-3D2B89AE8C89}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{47A0386C-BA3B-4418-8EB9-8498C6C92ED2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{688C9F8A-61EE-4E03-BBD2-603CC1A635DC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5629AB0-A949-4B74-A5D2-7839740ED994}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F08EA858-99DA-475B-A5FB-4D5864088F7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78E460EC-61C1-45E2-A5F3-5AB396ACB93D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91C98F75-31C7-47FC-ACA5-371E23F1705F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E16CD02B-BA25-4DB3-9C1A-B6508FA976D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5A00232-CE8C-4F48-8FA0-9A105ACDED2A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{425F4F9F-790D-45F2-BB7F-C99E8DC9E522}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B32DC99A-79B0-491A-914F-1D2049CD02DF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7DFB0F3F-D488-47A1-96F5-92E19A507D42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{945D2626-B015-4403-92F3-3AC95DE44154}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{22334CA1-03E6-4A39-A6DC-C4D27648D204}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66E2B104-C8A8-47D9-82D0-6AFB676AB3A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{987F5595-F4FC-4D6F-BA2C-4BEACCE90C21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7C345D4-5E45-41E0-B6C9-38CB3E436514}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBEEDE0D-0735-4612-BFA2-DE4E623E2035}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9D591D9-E53A-4429-9805-66927DD3685E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B53A4FC-50DB-4DA7-BA10-206E3060D734}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF322274-8327-485C-85C7-21293B7EE0D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2592,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56B7F8-D1CA-4CC0-8331-61E77F85C426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1B148-D8CE-4CCE-B6BD-40C414FEEFCE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3811,18 +3811,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7E783EF-3C18-4D2D-8A86-94BC58EAA116}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{838DC6E6-30BE-4E0C-A3D5-8D76862B007C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D6B285A1-B9B9-4928-848F-F47672D772A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94421A51-22F4-4F49-AB1F-AEE6C5351629}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1872A721-E145-48D1-AEC6-D0B3F0F522C0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18FCD480-F101-44FE-8A35-795ECF3C153F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32F29BD4-86B9-4769-B810-AAF76DED0F86}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8E406ED-9DBB-4525-B683-138844943D16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B85B91C-52A5-45B6-9E71-07BD2B1A5507}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{248DFF64-B09B-4A9F-BE74-5D032B8550C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8CE425E-CEA8-4D2E-BD96-B79C3FC79369}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AAFEF2C-E065-49C7-9E9E-9F6245B23248}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A76918FA-FD31-4F35-B4C1-551E608E3C49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBB6AEEB-88D5-49B2-8460-669B9AD2CB84}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5ABE022-7373-4D1E-8900-E8AEBAA5880C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83F6BA81-6438-4C71-B61E-146EA5B4FD6E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BB44E09C-DB3C-4B1F-B86B-67617FDD92EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE9CA67B-D6B7-462D-A35E-A1F097C83D6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{132D3195-689A-47CC-8041-81B36364FB97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AA2F2FB0-56C5-4D40-835E-88407C963A36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{662C7A1C-3A26-49C0-8E2C-4944D1764988}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{101AD066-D829-4EB6-803C-15184FD5332F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C04423D-AE8F-499C-89C9-664371FAF0FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0D3CF37-5CE0-4DD8-8857-9BF3D63AD393}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3835,7 +3835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFE8FD5-70E7-408A-8E1F-340C2B9F9F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F544A97F-45D7-4AF2-A9C7-0101F9F17651}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5052,18 +5052,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4E9D618-6403-4AE7-A5C8-C3CC5808BF19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{665EDDAC-A284-4BCD-8956-F6CF363A8BB7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE7DF37E-1E59-4BCC-8B29-13E7A6E1B7F9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CFC520F-854F-4E7A-B9EA-7994F66E759D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{47D8682F-016C-4753-8767-31578AB5A878}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F92E60F-8009-47E1-AB9C-4E1F4F1DC18A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31F3CE6D-9906-436C-9787-AA93423D6C7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73D655DE-275E-4A56-8FA8-2F73C344F8D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEF0E535-7DAD-4722-AE27-E31F9F835E99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCFBE70F-EA3D-43A5-8388-069163645D08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C772E622-43B9-4F93-9151-FCC9E7B4965D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AC92927-D130-41DA-8DA6-E87627196FDE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7BC8229-6F87-4D07-831B-57BA5C2DB4DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94EB1B45-1AA6-47EA-A8BD-DDEF8A97FF1F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0BA8DBEB-1B32-43E8-A249-9F822BB1F642}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE2F5A1E-4E13-4B4C-B12E-4848851A2EC5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E8686BB1-B272-4A7E-8FCC-3BA5375A7CED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD67962D-DF0A-4A8D-A3F2-161143AC6D99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6E60B0D-46AA-42B6-904A-BE870CC1CAB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{298BF715-03DD-483F-AC10-2B8083745AFD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC1D6AB7-992B-46FF-990C-34E8A01E3FA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB6A9A01-BEF0-4D5F-8710-1DEDF083C0C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2AEBB4C-0E96-492B-B312-A8590961A09A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{082274BB-197D-4865-851F-AE8888E41704}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5076,7 +5076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7ECDA0-B660-4D32-97A3-35D64AD5263A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB020A1A-21E6-456D-856B-E48A8AD272F9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6290,18 +6290,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2390CE0-34E4-407B-A004-137D6D2A8982}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4249EAE-CE01-4EEB-8219-8B25FB06634A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11A0366A-8C80-4485-8967-E37E192AA018}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE7C39A3-E08F-4D04-B368-A47D0CC60E79}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{84BB7BB3-ACDD-491C-B31C-D6291098F7B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1BA7BF20-CF0D-47D3-810E-B039C98CAE69}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F77E38DA-5229-4702-9A35-CA218D97FF33}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0A8E04D9-CB68-4166-9FFD-BE38F600365B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E023B52-3E80-4F0B-AABA-980694E0861E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2930325C-CAAE-4BF4-86F7-29BC45682DDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C04D6B73-A7C1-4390-BCDC-4342D8A6E33E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{579A5A22-76F5-4831-A30C-797E72E4B5B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24B93239-8F9A-4E68-8221-25B05B2B096B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0055DDA1-BB54-4CDB-BACB-1E3FEBDD9B32}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FE1C7A04-A3AC-4361-965F-197C56B57D98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2559B0D4-8E67-432C-943E-5788B99779A1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C41C1964-F268-4F9C-A14F-AA9B807FAD57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DA10A2D-7605-4012-8619-08D107F77C77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B7D56DC-5E8F-46FE-8CF5-963D5F81FA14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2796B7C-232C-40C4-ACCF-14A7BA9E378B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5C309B7-6C7D-4D09-AE25-5308F40A2AC5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{866A4DE5-EAE1-403C-8DD8-6CC3AC5EF269}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81D72E3C-DCAB-4615-946F-DECCE6CF71D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C105A8CC-BE8F-4BC3-8F42-77FCD993559A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6314,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C1C98C-B6DF-412E-8A84-B980C696D479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD30321-7353-4FA7-8D61-B8E9C9E10B93}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7551,18 +7551,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DDF10AB-4010-42A7-97DF-FBDAA733B373}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56C213DA-4F25-4F74-BAC2-479289380AC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B93A2EA-A3C7-4245-904A-DCF627777AAF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EFC07CA-B09F-4A83-8C61-F4BD61E4E168}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8FC1EF1A-1556-463B-B57E-8FED6E26DF47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99476C10-A8E0-4EA0-95BD-C5634063B12A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD6DDC79-F945-4791-AB53-7711718F7E2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C766D0C-2A7F-41C2-95E0-795292D3E471}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97C1270F-8DEC-4C24-9814-9995F0A2B1F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9371F2A9-B1CB-462E-9E80-D559F58FD8B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99FD8A96-D0B3-4A33-A2AF-33B9CBF75B71}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8815FAA2-2201-412F-9CEC-B789EF798DAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{804807AE-73B9-4AAC-B6CE-E9E749E9CE36}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAA588FA-1CFE-452E-B800-904DF1C337C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B407334-EDF2-4D5A-93D3-3D6A7F1FB41E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE501CA4-17D3-4781-812F-526A3595CFD5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DE03A02B-6E91-4226-BA91-ECEFA90C0778}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F801DD7B-A01C-4A86-BEC2-65B8820912B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{518F72D0-BD03-4DB0-B260-617C55B02427}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0FB17A51-0A6E-492B-B749-4D3B31BA4463}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA17A009-A930-4A1B-86C7-D0080ACB1869}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD46DECE-DD5C-43D7-A0EE-C3DB1520CFE1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{900567EC-69C5-4785-AC0E-D27B184E68BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0F253829-0454-4BF3-B6C8-C0DF56A996E4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7575,7 +7575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AB1A90-9083-421C-9056-BCCF166A827C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D59AF7-D780-45D4-82AA-6FDEFB049F6A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8808,18 +8808,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B2A6782-BA99-4D95-9E11-1CA68B8D0E37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC38E2B5-95C5-485C-B616-2BA2DA3B64DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{83441E80-495F-463A-A7DF-BA0FA8EF0294}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FDDA1C67-4B6B-4B95-91C4-DB94DAA2CA92}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{45111FA5-4CA9-44AA-9776-950B3286316D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E84ED09-5DBC-432E-95C9-97701A4D5EE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CDB41D9-68BB-418B-AB14-23534F8F5EB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D869A6C4-6D1D-443D-9D2C-9C3CBB71CC07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BDD0548E-2889-4277-8313-8D9896D6C424}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8444565A-3D9F-4752-94C4-48EE9A54A79B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81CF1491-5C06-4680-AA4B-C9159C411362}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{478FD2E0-4D20-4459-A59D-7B58BD9644BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05923D61-33F5-4F97-AAC1-66F0545F9102}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0196B24A-1E71-4DA4-BF8A-2C99AF9EB68F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CFFAC63-C42B-4106-989E-21D404BD37F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{216105DB-9D61-4665-8D5B-DBD8E128D197}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DD4108FE-6FD9-4D69-8816-A6A157482265}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1371A79E-2E99-44B0-A0B3-5D25D3A990F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33D21BA6-A5FD-412D-B354-C5F099E28460}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8146BE90-92CB-4F64-B370-B820CB819D28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80CEB6BE-1653-4D8E-AB37-08DD8C888674}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4DB972F-FE1B-48B9-A338-487EDCEE3716}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D44F9CF6-BCA4-4B41-B577-494757AB8100}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B7D32CA-DF58-4B0A-881C-4DE2765E4958}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8832,7 +8832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC80B5D2-6234-48AB-AB6C-3144CCCC953B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C55A97-9BB9-4C03-B1DA-56035D85C336}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10063,18 +10063,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96E1B2CA-7567-41B1-82D0-CC3BAA07960E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA627AE8-BC9C-47E3-8ADC-82CA0FFEEA4C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF44B613-032C-42D9-BCC4-280B8B112C0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{23D3184F-84DA-476E-BFDD-E6B72B0D39A2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{307AD0E7-4D6C-44DE-A066-9126E9F3D9B1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{398F9FCC-2A9E-42C8-B132-2A735CB207B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5F8344B-F4D2-4198-BAA9-B514FAD62F3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{711BB5C0-E019-4AE9-826F-00123860314F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{631BCA7B-C4A9-4B8F-BCCC-593263C6759B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BED84858-E1D3-4EA9-8426-D5938C602968}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D50FF73F-13CF-4FF3-A91A-5566D43187A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64ACB28D-6EE9-4130-8025-0ED6CFC515AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D540F6B8-2349-46DE-81F5-DB8DAC9C40E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4AE55214-C629-40E9-9378-26B74B14D9BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D302C60-AA56-4810-B372-DDD5F091266C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{35F92F78-CE61-49D0-BC0D-804466663C17}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{803FA882-6D64-4D72-B312-CF2C3545F8F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FEB1E1B3-B9DD-47E1-BCEA-D6EAB940F8D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA56E58A-D958-4DF9-992C-ED97C0E062F8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7B46CFF-AC89-48ED-A1C5-B3BBF22B5BF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9D0B25D-C36D-4EFC-A9FE-66A2C5A6C8F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4ED7500-9FB8-4526-979C-83368E682F71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6D33894-7132-4A26-BC32-EC82E06B110F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CDE31CA5-EEFC-45A7-84B4-06386024C247}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10087,7 +10087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7BDD3F-BA0E-4FFC-BF7F-D671C0A93047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B680AAAF-6D33-4EA1-8D93-E994A172C2EC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11318,18 +11318,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E60161F-E774-44FD-B547-C16A2C2AFB0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67E69976-900D-4588-8A5B-AEF89EB123CF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DEB2AC5C-8DE2-4A7C-AD51-CA8FA62B210D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE6AE80F-63DF-4472-817F-687F54233897}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CC370C0D-DD9E-4ED4-9AC1-96DA89DC9AC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B0433CC-38C4-4352-ACCE-FDDF83B697FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80D49677-E2BF-46D6-9C3B-F8D1D51F78A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{464EB19D-B048-4747-9283-877A757502DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B368D13-51CC-48C8-AF2A-1A1E2AABFFFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6870FFFE-553D-4B57-9359-F0079F58D847}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A100810F-D041-478E-BBDD-005D7B4FC2D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FAC9EB4-8600-42E0-B9DF-0B0AD8CD4A54}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C39E3578-7893-4AEE-9E56-734D4AFF85DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{485EBD63-89DA-443A-BB62-B48AACA11861}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CF3944A-2736-4F7C-8904-5E1C42B27C8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9EB17CE5-2B15-406C-A4FF-313E549A2725}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C447EE34-215E-464A-8D17-1D7EA9E39599}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8876635A-1E2F-4AD2-9592-19DEF3BC6ADD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DB51880-FAF1-4959-ACAD-9A57CF127F74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B7D03E5C-B549-423D-A492-A178A4DE3ABA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{739F2F86-0B9D-4DF5-8BF1-22C016E3DA0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1047BAA-3C3E-4158-AB9C-72B4340867E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77273D55-7026-426E-A5E1-0C40BC320B49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA6268E4-E156-4AE4-AF41-0B0F0988E8FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11342,7 +11342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523B3C5E-5D5D-45D8-A727-11CFB579F4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3435688D-6193-4FA7-BE22-ED779B3509C8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12573,18 +12573,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{335EE698-4C23-4811-83D9-3BB336400BC7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{574B5C28-4963-479B-A62F-DB03AA83DF9B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F1186C6E-F9A1-43EF-9B81-A2B1D54AA712}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{592E0E04-B6B2-40D3-9631-03E7A0F297F6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{84CBFCCC-62FE-42CB-ACD8-10D924DD93ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FDC69B23-DCD6-455A-8AA4-31D9E430503A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9491A379-3291-4DB3-AE0F-80279684BAAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12736921-400B-41C5-B7C4-68958E548EA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18231F99-E479-457B-8893-30C552CD9494}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D83768C9-53DE-43C9-8DC4-C667827F0557}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF037539-3EF6-481B-B674-8C62C9D1B3A1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C56C95A4-2B32-4CF4-8761-D8BE10339662}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CF0D444-4CB5-4CBE-A02B-A23FC91F7C4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92FC81EE-6429-4650-B3A2-C132D75D2792}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ABC1691-F6B6-45E9-94B8-6CC10DF2EE50}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{99D75D6F-32EC-4A39-87E5-4AA2C70240A9}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{121757A8-B999-4F22-A34C-2CE6FFCE706F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06C9D5B8-FC8F-4691-A8DA-A365CB7CC2E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F989CE2-259C-455D-8090-0F31074BFEB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12B4C7ED-4D77-4EF8-B2E7-39A2E6A82CA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C035C80-00C8-4046-8FDE-A4B0CCF20AC4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78A7B982-A9C5-4892-8660-7B034FFBF847}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D82B61D3-9683-4241-BB54-5BFAC50FD8D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6670B32A-F6E4-4465-B6E5-1743B4C522B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12597,7 +12597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F565402-F4D2-4C05-B63C-5654BF634034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA104148-9FE6-45B7-8C8D-52073D9292E2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13828,18 +13828,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{905FFC15-211D-4B4C-94AE-D6B1D8FD6847}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14933323-7B54-4078-80BE-86801DC59F2B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DB38A4E-013C-428F-AD85-66C35D9C1244}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA765DA6-34C3-4A95-BA3D-24C51DD60F90}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{657C4681-E736-4FE1-B416-D2480BA2F7EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0668C407-A319-4C04-BB42-ABB81DC29047}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{261E935F-4F82-49C9-B8FB-633DC7793EEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8F6468A-337C-412A-A54F-7BF0187BE513}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBCD593F-813E-4157-A3A1-01E475B7D66A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DFBA8C81-D763-40A6-A5E6-62225B578D60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5641EC5-FA96-4949-9B83-AA6B9FCEC401}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8051CD06-A0E1-4031-ACD4-CFB0921BA257}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73CD1582-C39D-4CAA-94D7-19C2F8DCED26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B58C7F27-2C27-4167-8F8E-F47D9005A925}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA953D33-A6BB-4404-83F6-E1D6F48A3FDA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1096F485-99E2-4152-97A0-843A21133CAD}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{EBA9852F-D491-4CC4-97BB-6EF334BC37FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A4A6429-BCEA-4CD2-9F5C-C2D0D4D679C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85941422-4F17-443E-9B32-E58A080072A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7242C408-0AC7-4BCB-AC00-3C7F1246226B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7771627-65EA-4D7A-91EE-C8942AC07E97}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE4BDB28-F9CB-454D-BC85-7D3A9CFBDEAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DED91A5-C7C5-4CA9-B8C5-EAC8BABAD217}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B9FA6F6-E125-49CA-A2F2-0894C0992753}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13852,7 +13852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE24F75-ACAD-42DC-99A6-142ED4588212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53936DAA-7B6E-42E1-A419-B8859A2165B2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15081,18 +15081,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92216F15-F645-4F2C-83A9-8AA0135D1023}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C1393DF-48D2-4DB6-AD42-01BD90E6DB7E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DEF69944-CF4E-4290-ADA7-5ADAC2994967}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{710FA060-6A59-42F6-A59A-43DCE927F4A6}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E1550413-3C9B-4F19-9321-FA5036AED7DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6E21D36-02C0-4356-A7DB-78335915A406}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1D805EF-EB68-40AE-ACC4-2AE046919FC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{114519ED-3E84-4CEC-8B8D-71B1DB325B01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC33D187-B417-4A1A-B889-488964853201}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F975E15-0CA6-4F09-B240-5B2E584E5CD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB374B9F-01DB-4484-8330-4B3660FCEFB2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABD624C6-E4B6-4094-80AE-F3DDECF92982}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F0CC757-8026-46EC-82F3-0927D93123FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04C45618-25DC-4606-B506-C0AA554BF0CE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11A77ACB-1FE5-4FB5-B95E-7C4E425502C1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BBB12950-0E99-4E83-B902-7435A2155B9F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{452FA93C-71A9-482C-8627-483448793559}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E5BC0DB-DFCE-4A95-8A9F-465C39DFBC81}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C627D27B-52CB-449E-ABDD-F8D978085968}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E594475-A8EC-445B-B536-0D57457EF6AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1548178-C83E-4B9F-8E3D-DE499FCE3B8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF3A244C-41AD-4D80-B68D-A439ACAB555D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCBAB2DF-1935-45AD-9C57-63AB0C668DBB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B44045C-C0FD-4302-AC52-FB7A2B9DDEBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15105,7 +15105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9658DE-6F5C-43DA-955E-BCAB53A0B42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27722544-2EF7-4625-8E1F-8463F8A5E974}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16334,18 +16334,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFC01A75-E67C-40E2-BE93-C882C92881FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28C06B9E-D319-4F80-A508-C9AC2873AF5F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82348E87-2E6A-46F3-9726-C54A5270E323}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61D897FB-F9BA-4F07-AF17-354107DCFCD2}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B36A8A3E-AD16-4A69-A91D-DE2D86AF92AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F45A6BD-E357-4710-831E-8C173003A49E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5040EA63-A50F-437C-B0F5-90FF6844FED0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4469E5D7-00BD-406A-BCE7-3DE87B7EE64E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68ED6E4A-0A0E-4FB7-8CD1-9406184FEF38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{080716EC-69A8-47B3-A775-F87B7F8A774B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AD261CE-DFA1-4B04-AECE-CADA7D3A6744}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4B1A6DC-90D2-43C5-97FF-2790CDD1B7BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64B5209B-0EC6-4E44-B56A-EF2D8153FC8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C6D42A0-C0FC-438E-B19F-C52128A6F89A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{20A082C2-FEAB-499B-A6AA-40AF4A24063B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3437698C-5E06-4CC0-BB54-A79363D8640C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F2137C9A-EAA3-4E9F-81FB-80E7188081C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E38DD2AE-D35F-4555-ABD3-8C3E62CC06F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6CD7082-85DF-4CFE-9DB9-F4CBED198C70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A6D894E-BD21-40C4-BF38-7DFDE6D97CD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CBF6834-6FCD-40A5-B51C-E470C04021AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92A26FAE-13CE-4D54-A109-8451B49F53C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2035C53D-2F59-43EA-9653-D7185286CD64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5456FC29-4217-4476-ABC0-3B3432675E83}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
